--- a/dataDictionary.xlsx
+++ b/dataDictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI_PD\Adv DB\project\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Exam_systeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="90">
   <si>
     <t>ExamSystem</t>
   </si>
@@ -137,33 +137,9 @@
     <t>Students</t>
   </si>
   <si>
-    <t>sysdiagrams</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nvarchar(128)</t>
-  </si>
-  <si>
-    <t>principal_id</t>
-  </si>
-  <si>
-    <t>diagram_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>varbinary(-1)</t>
-  </si>
-  <si>
     <t>Topics</t>
   </si>
   <si>
@@ -216,6 +192,108 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Department name</t>
+  </si>
+  <si>
+    <t>Course ID (primary key for courses)</t>
+  </si>
+  <si>
+    <t>Course name</t>
+  </si>
+  <si>
+    <t>Instructor who teach that course. Foreign key to instructors table</t>
+  </si>
+  <si>
+    <t>Exam ID (primary key)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign key to the student </t>
+  </si>
+  <si>
+    <t>Foreign key to the course of the exam</t>
+  </si>
+  <si>
+    <t>Duration of the exam</t>
+  </si>
+  <si>
+    <t>Marks of the student in this exam</t>
+  </si>
+  <si>
+    <t>Foreign key to the question in the exam</t>
+  </si>
+  <si>
+    <t>Foreign key to the exam</t>
+  </si>
+  <si>
+    <t>Answer ID of the student in each question in the exam</t>
+  </si>
+  <si>
+    <t>Foreign key to the instructor information in the users table</t>
+  </si>
+  <si>
+    <t>Foreign key to the department of the instructor</t>
+  </si>
+  <si>
+    <t>Department ID (primary key for Department)</t>
+  </si>
+  <si>
+    <t>Question ID (primary key for question)</t>
+  </si>
+  <si>
+    <t>Content of the question (body)</t>
+  </si>
+  <si>
+    <t>Type os the question (true/false , MCQ)</t>
+  </si>
+  <si>
+    <t>Correct answer to each question</t>
+  </si>
+  <si>
+    <t>Degrees for each question</t>
+  </si>
+  <si>
+    <t>Foreign key to to course of that question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer ID for each question choices </t>
+  </si>
+  <si>
+    <t>Question ID (foreign key)</t>
+  </si>
+  <si>
+    <t>Content of each choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Id </t>
+  </si>
+  <si>
+    <t>Course Id (primary and foreign key)</t>
+  </si>
+  <si>
+    <t>Topic id (primary key)</t>
+  </si>
+  <si>
+    <t>Foreign key to course which contain that topic</t>
+  </si>
+  <si>
+    <t>Topic name</t>
+  </si>
+  <si>
+    <t>Id (primary key) of users</t>
+  </si>
+  <si>
+    <t>name of the users (students and instructors)</t>
+  </si>
+  <si>
+    <t>User name of the user</t>
+  </si>
+  <si>
+    <t>type of each user (instructor, student or admin)</t>
+  </si>
+  <si>
+    <t>password of the user</t>
   </si>
 </sst>
 </file>
@@ -325,13 +403,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -618,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,1050 +712,916 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>7</v>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>7</v>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>7</v>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>7</v>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>7</v>
+      <c r="I10" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>7</v>
+      <c r="I11" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>7</v>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>7</v>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>7</v>
+      <c r="I14" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>7</v>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>7</v>
+      <c r="I16" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>7</v>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>7</v>
+      <c r="H18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>7</v>
+      <c r="I19" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>7</v>
+      <c r="H20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>7</v>
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>7</v>
+      <c r="G22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>7</v>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>7</v>
+      <c r="G24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>7</v>
+      <c r="H25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>7</v>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>7</v>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>7</v>
+      <c r="G28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>7</v>
+      <c r="I29" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>7</v>
+      <c r="G30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>7</v>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>7</v>
+      <c r="E32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4">
-        <v>4</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>7</v>
+      <c r="B33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4">
-        <v>5</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>7</v>
+      <c r="F34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>7</v>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="3">
         <v>4</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>7</v>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4">
-        <v>3</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="F37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>7</v>
+      <c r="H37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A2:A42"/>
+  <mergeCells count="23">
+    <mergeCell ref="A2:A37"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B11"/>
@@ -1687,6 +1631,19 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
